--- a/data/trans_bre/P17_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P17_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>6.757270331647991</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10.80748699275728</v>
+        <v>10.80748699275727</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2580582558640884</v>
@@ -649,7 +649,7 @@
         <v>0.08664308032286108</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1523508574539624</v>
+        <v>0.1523508574539622</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>11.93902205173891</v>
+        <v>11.61214537294937</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.817617408146295</v>
+        <v>7.731917873351983</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.344269047411597</v>
+        <v>3.263147659131323</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.125709902329424</v>
+        <v>5.004142227958121</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1772006606387089</v>
+        <v>0.1723027602791049</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.109574974408455</v>
+        <v>0.1089084337285279</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04304060660871804</v>
+        <v>0.04197075916994533</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.06734837473258366</v>
+        <v>0.06650742978336198</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.20398332518956</v>
+        <v>21.37900125544246</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.98195813561484</v>
+        <v>15.14005742740849</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.933200725799841</v>
+        <v>9.875636264272833</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.07463921152399</v>
+        <v>16.86203257790238</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3434986450534367</v>
+        <v>0.3484578988148284</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2227098185461786</v>
+        <v>0.2238160748102518</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1325512043719665</v>
+        <v>0.1296614957318261</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2575291289850303</v>
+        <v>0.2548138394643049</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.193133913221462</v>
+        <v>7.177541080311048</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.557071672592908</v>
+        <v>7.755741654745256</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.870744280078337</v>
+        <v>3.251575780714165</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8.456015521671723</v>
+        <v>8.685180956826793</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1084073724366969</v>
+        <v>0.107102826628146</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1024466155304703</v>
+        <v>0.1056597154471845</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0383315407325562</v>
+        <v>0.04307188494900674</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1175307659041929</v>
+        <v>0.1217490909123748</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.75344615916389</v>
+        <v>15.17845925799764</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.76097630058362</v>
+        <v>14.86420327776552</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.79617009339497</v>
+        <v>10.83579771463222</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.58471193173214</v>
+        <v>17.17837480193853</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2371335338150949</v>
+        <v>0.2442479126914545</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2140310980840381</v>
+        <v>0.2151242314680588</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1521908729636236</v>
+        <v>0.1518752705682766</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.269741022521559</v>
+        <v>0.264502731699795</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.545560913516935</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.928294269377775</v>
+        <v>4.928294269377798</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2004967752281112</v>
@@ -849,7 +849,7 @@
         <v>0.08730286830918763</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.06834701222860953</v>
+        <v>0.06834701222860985</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.454322996957057</v>
+        <v>8.510056432979923</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.689214401263627</v>
+        <v>8.17010946089426</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.147343605340618</v>
+        <v>2.71318355581646</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.222231362423446</v>
+        <v>0.9507590924774166</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1317850386414528</v>
+        <v>0.1302699210196804</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.115737564446005</v>
+        <v>0.1096279816283273</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02831838472690761</v>
+        <v>0.03492765099994591</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.01797462101736047</v>
+        <v>0.01141136468725141</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.40569455598353</v>
+        <v>16.74412985810533</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.38139279082035</v>
+        <v>16.41011738944395</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.58925145755643</v>
+        <v>10.93649187895565</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.726440953709695</v>
+        <v>9.076979220183295</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2715260613136894</v>
+        <v>0.2806935501673189</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2344282947462544</v>
+        <v>0.2330874137715533</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1479119052339619</v>
+        <v>0.1516245885315776</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1274170243253058</v>
+        <v>0.129923603274347</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>8.55878099476084</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.739749066252742</v>
+        <v>5.739749066252764</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3068815023761121</v>
@@ -949,7 +949,7 @@
         <v>0.1270202632681089</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.0928772836699637</v>
+        <v>0.09287728366996406</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.195731239519311</v>
+        <v>8.963411370513654</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.11231937480878</v>
+        <v>1.29722467141503</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.621552851205564</v>
+        <v>2.301110499079394</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.465689959542284</v>
+        <v>1.319819966369442</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1476881183661779</v>
+        <v>0.1623680608958702</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01525445051024745</v>
+        <v>0.01853751281995076</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04136011821004659</v>
+        <v>0.03395746351206347</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.02266131799440445</v>
+        <v>0.02061052594300231</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.6491805272374</v>
+        <v>23.14259500542203</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.11871909910865</v>
+        <v>13.023729251998</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.0920768443009</v>
+        <v>14.40580339298698</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.67852055176476</v>
+        <v>10.37518742397798</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4618767432086721</v>
+        <v>0.4599414417817742</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1966706570043137</v>
+        <v>0.1966382562025489</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2239602531042937</v>
+        <v>0.2229339401126024</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1775453510704602</v>
+        <v>0.1791553149766301</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>7.149759647523624</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.786031615468071</v>
+        <v>8.78603161546806</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2277203532329868</v>
@@ -1049,7 +1049,7 @@
         <v>0.09633995217679819</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1291078783022352</v>
+        <v>0.129107878302235</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>11.85859284038394</v>
+        <v>11.94575995648459</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.952986524900918</v>
+        <v>9.075108647295508</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.164542532456455</v>
+        <v>5.190155303095448</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.607143528475032</v>
+        <v>6.690734746254822</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1860101038491009</v>
+        <v>0.1867951638514294</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1240314397530396</v>
+        <v>0.1257824935865102</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06881501790279033</v>
+        <v>0.06892573024362861</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.09416440616125943</v>
+        <v>0.09610717106535055</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.53723364150711</v>
+        <v>16.35224693254162</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.09270470562982</v>
+        <v>13.2863956290688</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.174367619254085</v>
+        <v>9.16185943126818</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.94596426385468</v>
+        <v>11.00393202734304</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2703533489420454</v>
+        <v>0.2673891700073486</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1873246235104333</v>
+        <v>0.1905700375997205</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1258688343403318</v>
+        <v>0.1256545115518053</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1626516397325014</v>
+        <v>0.1650140960303423</v>
       </c>
     </row>
     <row r="19">
